--- a/Input/Input - template.xlsx
+++ b/Input/Input - template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\MERCE\Programmation\pelca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB100B2-BA21-45A1-A66F-B9E746D9EF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CBF116-6DE2-4796-AF07-D082600129CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="-14355" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
+    <workbookView xWindow="3630" yWindow="-14310" windowWidth="21600" windowHeight="11655" activeTab="5" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory - Manufacturing" sheetId="7" r:id="rId1"/>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>All staircase curves for each impact are displayed on a single plot. However, this number is an option to show the staircase curve for a selected impact on a separate plot. The number corresponds to the impact listed in the 'LCIA' sheet, ranked by the same number.</t>
-  </si>
-  <si>
-    <t>The tool models the failure of a Replacement Unit (RU) across three life stages: the 'Early' phase (associated with design or manufacturing issues that were not adequately controlled), the 'Random' phase (where failures occur randomly), and the 'Wear-out' phase (resulting from wear and tear). This sheet allows you to specify the parameters necessary to create failure functions (probability distributions) for the RUs. The probability distribution used to model failures is Weibull, characterized by two parameters: β (the shape parameter) and σ (the scale parameter). Failures during the early phase have β &lt; 1, random failures have β = 1, and wear-out failures have β &gt; 1.</t>
   </si>
   <si>
     <t>The tool allows models the diagnosis associated with the system, specifically detailing the replacement scenarios when a fault occurs. This includes identifying what components are replaced within the system, To achieve this, this sheet constructs the Replacement Matrix (RM). The numbers in the matrix represent the average proportion of each component replaced when a fault occurs in a specific RU, with values ranging from 0 to 1. Row indices represent faults in a specific RU (e.g., Fault RU1), while column indices represent the RUs to be replaced (e.g., RU1).
@@ -443,6 +440,9 @@
   <si>
     <t>energy RU2</t>
   </si>
+  <si>
+    <t>The tool models the failure of a Replacement Unit (RU) across three life stages: the 'Early' phase (associated with design or manufacturing issues that were not adequately controlled), the 'Random' phase (where failures occur randomly), and the 'Wear-out' phase (resulting from wear and tear). This sheet allows you to specify the parameters necessary to create failure functions (probability distributions) for the RUs. The probability distribution used to model failures is Weibull, characterized by two parameters: β (the shape parameter) and σ (the scale parameter - in years). Failures during the early phase have β &lt; 1, random failures have β = 1, and wear-out failures have β &gt; 1.</t>
+  </si>
 </sst>
 </file>
 
@@ -554,7 +554,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -664,6 +664,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -671,7 +686,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -755,6 +770,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1075,8 +1094,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:M750"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1113,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1102,7 +1121,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1132,10 +1151,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>86</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1176,7 +1195,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>31</v>
@@ -1201,46 +1220,46 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="str">
+      <c r="A12" s="41" t="str">
         <f>B3</f>
         <v>RU1 Manufacturing</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="42">
         <v>0</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="41">
         <v>1</v>
       </c>
-      <c r="E12" s="32" t="str">
+      <c r="E12" s="41" t="str">
         <f>B1</f>
         <v>Name of the database</v>
       </c>
-      <c r="F12" s="39" t="str">
+      <c r="F12" s="41" t="str">
         <f>B7</f>
         <v>RU1 manufacturing</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="41">
         <v>0</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="41" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1250,7 +1269,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1280,10 +1299,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1324,7 +1343,7 @@
         <v>30</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>31</v>
@@ -1349,46 +1368,46 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="str">
+      <c r="A23" s="41" t="str">
         <f>B14</f>
         <v>RU2 Manufacturing</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="42">
         <v>0</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="41">
         <v>1</v>
       </c>
-      <c r="E23" s="32" t="str">
+      <c r="E23" s="41" t="str">
         <f>B1</f>
         <v>Name of the database</v>
       </c>
-      <c r="F23" s="39" t="str">
+      <c r="F23" s="41" t="str">
         <f>B18</f>
         <v>RU2 manufacturing</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J23" s="41">
         <v>0</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="K23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="30" t="s">
+      <c r="M23" s="41" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3583,7 +3602,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -3628,10 +3647,10 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -3676,7 +3695,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>31</v>
@@ -3789,10 +3808,10 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -3837,7 +3856,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>31</v>
@@ -4219,7 +4238,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4249,8 +4268,8 @@
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4274,7 +4293,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -4369,7 +4388,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -4434,7 +4453,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">

--- a/Input/Input - template.xlsx
+++ b/Input/Input - template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\MERCE\Programmation\pelca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CBF116-6DE2-4796-AF07-D082600129CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE39059E-7C1C-4D11-A446-40B01081D6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="-14310" windowWidth="21600" windowHeight="11655" activeTab="5" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory - Manufacturing" sheetId="7" r:id="rId1"/>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>Number of Replacement Units (RU). Ensure that the correct number of RUs is maintained across the 'Inventory - Manufacturing,' 'Inventory - Use,' 'Fault,' and 'Replacement Matrix' sheets.</t>
-  </si>
-  <si>
-    <t>Durée d'usage de la courbe en escalier.</t>
   </si>
   <si>
     <t>Operating duration in hours per year for the entire system. This information is linked to the 'Inventory - Use' sheet, where each activity represents the energy consumption per hour of the RUs.</t>
@@ -442,6 +439,9 @@
   </si>
   <si>
     <t>The tool models the failure of a Replacement Unit (RU) across three life stages: the 'Early' phase (associated with design or manufacturing issues that were not adequately controlled), the 'Random' phase (where failures occur randomly), and the 'Wear-out' phase (resulting from wear and tear). This sheet allows you to specify the parameters necessary to create failure functions (probability distributions) for the RUs. The probability distribution used to model failures is Weibull, characterized by two parameters: β (the shape parameter) and σ (the scale parameter - in years). Failures during the early phase have β &lt; 1, random failures have β = 1, and wear-out failures have β &gt; 1.</t>
+  </si>
+  <si>
+    <t>Duration of use of the staircase curve.</t>
   </si>
 </sst>
 </file>
@@ -756,6 +756,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -767,12 +773,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1113,7 +1113,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1121,7 +1121,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1151,10 +1151,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>85</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1194,8 +1194,8 @@
       <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="40" t="s">
-        <v>85</v>
+      <c r="F11" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>31</v>
@@ -1220,46 +1220,46 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="str">
+      <c r="A12" s="37" t="str">
         <f>B3</f>
         <v>RU1 Manufacturing</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="38">
         <v>0</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="37">
         <v>1</v>
       </c>
-      <c r="E12" s="41" t="str">
+      <c r="E12" s="37" t="str">
         <f>B1</f>
         <v>Name of the database</v>
       </c>
-      <c r="F12" s="41" t="str">
+      <c r="F12" s="37" t="str">
         <f>B7</f>
         <v>RU1 manufacturing</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="37">
         <v>0</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="L12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="M12" s="37" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1299,10 +1299,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1342,8 +1342,8 @@
       <c r="E22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="40" t="s">
-        <v>85</v>
+      <c r="F22" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>31</v>
@@ -1368,46 +1368,46 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="str">
+      <c r="A23" s="37" t="str">
         <f>B14</f>
         <v>RU2 Manufacturing</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="38">
         <v>0</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="37">
         <v>1</v>
       </c>
-      <c r="E23" s="41" t="str">
+      <c r="E23" s="37" t="str">
         <f>B1</f>
         <v>Name of the database</v>
       </c>
-      <c r="F23" s="41" t="str">
+      <c r="F23" s="37" t="str">
         <f>B18</f>
         <v>RU2 manufacturing</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="41">
+      <c r="J23" s="37">
         <v>0</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="41" t="s">
+      <c r="M23" s="37" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3647,10 +3647,10 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -3694,8 +3694,8 @@
       <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="40" t="s">
-        <v>85</v>
+      <c r="F9" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>31</v>
@@ -3737,7 +3737,7 @@
         <f>'Inventory - Manufacturing'!B1</f>
         <v>Name of the database</v>
       </c>
-      <c r="F10" s="39" t="str">
+      <c r="F10" s="35" t="str">
         <f>B5</f>
         <v>energy RU1</v>
       </c>
@@ -3808,10 +3808,10 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -3855,8 +3855,8 @@
       <c r="E20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="40" t="s">
-        <v>85</v>
+      <c r="F20" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>31</v>
@@ -3898,7 +3898,7 @@
         <f>'Inventory - Manufacturing'!B1</f>
         <v>Name of the database</v>
       </c>
-      <c r="F21" s="39" t="str">
+      <c r="F21" s="35" t="str">
         <f>B16</f>
         <v>energy RU2</v>
       </c>
@@ -4141,8 +4141,8 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="22" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4268,7 +4268,7 @@
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4292,14 +4292,14 @@
       <c r="A2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
@@ -4387,25 +4387,25 @@
       <c r="A2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
+      <c r="B2" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4452,510 +4452,510 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>80</v>
+      <c r="A1" s="42" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
+      <c r="A2" s="42"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
+      <c r="A3" s="42"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="42"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="42"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="42"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="42"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="42"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="42"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="42"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="42"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="42"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="42"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="42"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="42"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="42"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="42"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="42"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="42"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="42"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="42"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+      <c r="A22" s="42"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+      <c r="A23" s="42"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="42"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="42"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="42"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="42"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="42"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="42"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="42"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="42"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+      <c r="A32" s="42"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+      <c r="A33" s="42"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+      <c r="A34" s="42"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+      <c r="A35" s="42"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="42"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="42"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+      <c r="A38" s="42"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+      <c r="A39" s="42"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+      <c r="A40" s="42"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+      <c r="A41" s="42"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+      <c r="A42" s="42"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+      <c r="A43" s="42"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+      <c r="A44" s="42"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+      <c r="A45" s="42"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+      <c r="A46" s="42"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+      <c r="A47" s="42"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+      <c r="A48" s="42"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
+      <c r="A49" s="42"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
+      <c r="A50" s="42"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
+      <c r="A51" s="42"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
+      <c r="A52" s="42"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
+      <c r="A53" s="42"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
+      <c r="A54" s="42"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
+      <c r="A55" s="42"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
+      <c r="A56" s="42"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
+      <c r="A57" s="42"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
+      <c r="A58" s="42"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
+      <c r="A59" s="42"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
+      <c r="A60" s="42"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
+      <c r="A61" s="42"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
+      <c r="A62" s="42"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
+      <c r="A63" s="42"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
+      <c r="A64" s="42"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
+      <c r="A65" s="42"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+      <c r="A66" s="42"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
+      <c r="A67" s="42"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
+      <c r="A68" s="42"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
+      <c r="A69" s="42"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
+      <c r="A70" s="42"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
+      <c r="A71" s="42"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
+      <c r="A72" s="42"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
+      <c r="A73" s="42"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
+      <c r="A74" s="42"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+      <c r="A75" s="42"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
+      <c r="A76" s="42"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
+      <c r="A77" s="42"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
+      <c r="A78" s="42"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
+      <c r="A79" s="42"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="38"/>
+      <c r="A80" s="42"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
+      <c r="A81" s="42"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
+      <c r="A82" s="42"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
+      <c r="A83" s="42"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
+      <c r="A84" s="42"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
+      <c r="A85" s="42"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
+      <c r="A86" s="42"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
+      <c r="A87" s="42"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="38"/>
+      <c r="A88" s="42"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
+      <c r="A89" s="42"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
+      <c r="A90" s="42"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
+      <c r="A91" s="42"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
+      <c r="A92" s="42"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="38"/>
+      <c r="A93" s="42"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="38"/>
+      <c r="A94" s="42"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
+      <c r="A95" s="42"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
+      <c r="A96" s="42"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
+      <c r="A97" s="42"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
+      <c r="A98" s="42"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
+      <c r="A99" s="42"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="38"/>
+      <c r="A100" s="42"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="38"/>
+      <c r="A101" s="42"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="38"/>
+      <c r="A102" s="42"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="38"/>
+      <c r="A103" s="42"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="38"/>
+      <c r="A104" s="42"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="38"/>
+      <c r="A105" s="42"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="38"/>
+      <c r="A106" s="42"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="38"/>
+      <c r="A107" s="42"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="38"/>
+      <c r="A108" s="42"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="38"/>
+      <c r="A109" s="42"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="38"/>
+      <c r="A110" s="42"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="38"/>
+      <c r="A111" s="42"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="38"/>
+      <c r="A112" s="42"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="38"/>
+      <c r="A113" s="42"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="38"/>
+      <c r="A114" s="42"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="38"/>
+      <c r="A115" s="42"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="38"/>
+      <c r="A116" s="42"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="38"/>
+      <c r="A117" s="42"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="38"/>
+      <c r="A118" s="42"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="38"/>
+      <c r="A119" s="42"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="38"/>
+      <c r="A120" s="42"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="38"/>
+      <c r="A121" s="42"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="38"/>
+      <c r="A122" s="42"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="38"/>
+      <c r="A123" s="42"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="38"/>
+      <c r="A124" s="42"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="38"/>
+      <c r="A125" s="42"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="38"/>
+      <c r="A126" s="42"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="38"/>
+      <c r="A127" s="42"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="38"/>
+      <c r="A128" s="42"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="38"/>
+      <c r="A129" s="42"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="38"/>
+      <c r="A130" s="42"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="38"/>
+      <c r="A131" s="42"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="38"/>
+      <c r="A132" s="42"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="38"/>
+      <c r="A133" s="42"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="38"/>
+      <c r="A134" s="42"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="38"/>
+      <c r="A135" s="42"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="38"/>
+      <c r="A136" s="42"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="38"/>
+      <c r="A137" s="42"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="38"/>
+      <c r="A138" s="42"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="38"/>
+      <c r="A139" s="42"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="38"/>
+      <c r="A140" s="42"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="38"/>
+      <c r="A141" s="42"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="38"/>
+      <c r="A142" s="42"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="38"/>
+      <c r="A143" s="42"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="38"/>
+      <c r="A144" s="42"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="38"/>
+      <c r="A145" s="42"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="38"/>
+      <c r="A146" s="42"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="38"/>
+      <c r="A147" s="42"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="38"/>
+      <c r="A148" s="42"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="38"/>
+      <c r="A149" s="42"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="38"/>
+      <c r="A150" s="42"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="38"/>
+      <c r="A151" s="42"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="38"/>
+      <c r="A152" s="42"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="38"/>
+      <c r="A153" s="42"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="38"/>
+      <c r="A154" s="42"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="38"/>
+      <c r="A155" s="42"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="38"/>
+      <c r="A156" s="42"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="38"/>
+      <c r="A157" s="42"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="38"/>
+      <c r="A158" s="42"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="38"/>
+      <c r="A159" s="42"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="38"/>
+      <c r="A160" s="42"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="38"/>
+      <c r="A161" s="42"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="38"/>
+      <c r="A162" s="42"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="38"/>
+      <c r="A163" s="42"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="38"/>
+      <c r="A164" s="42"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="38"/>
+      <c r="A165" s="42"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="38"/>
+      <c r="A166" s="42"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="38"/>
+      <c r="A167" s="42"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="38"/>
+      <c r="A168" s="42"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="29"/>

--- a/Input/Input - template.xlsx
+++ b/Input/Input - template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\MERCE\Programmation\pelca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE39059E-7C1C-4D11-A446-40B01081D6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09D7479-BDE3-47E9-A9DD-011EC2206FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
+    <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory - Manufacturing" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Staircase" sheetId="5" r:id="rId5"/>
     <sheet name="Faults" sheetId="2" r:id="rId6"/>
     <sheet name="Replac. Matrix" sheetId="6" r:id="rId7"/>
-    <sheet name="Licence (GNU LGPL)" sheetId="10" r:id="rId8"/>
+    <sheet name="License (GNU LGPL)" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4141,8 +4141,8 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4442,8 +4442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D881B3-C817-4747-BE7C-F934D584F408}">
   <dimension ref="A1:A179"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H175" sqref="H175"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Input/Input - template.xlsx
+++ b/Input/Input - template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\MERCE\Programmation\pelca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09D7479-BDE3-47E9-A9DD-011EC2206FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8F99D8-F444-4842-AE10-7ACB36F4B9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
+    <workbookView xWindow="2730" yWindow="2565" windowWidth="21600" windowHeight="11295" firstSheet="4" activeTab="7" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory - Manufacturing" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="94">
   <si>
     <t>Random failure</t>
   </si>
@@ -438,10 +438,20 @@
     <t>energy RU2</t>
   </si>
   <si>
-    <t>The tool models the failure of a Replacement Unit (RU) across three life stages: the 'Early' phase (associated with design or manufacturing issues that were not adequately controlled), the 'Random' phase (where failures occur randomly), and the 'Wear-out' phase (resulting from wear and tear). This sheet allows you to specify the parameters necessary to create failure functions (probability distributions) for the RUs. The probability distribution used to model failures is Weibull, characterized by two parameters: β (the shape parameter) and σ (the scale parameter - in years). Failures during the early phase have β &lt; 1, random failures have β = 1, and wear-out failures have β &gt; 1.</t>
-  </si>
-  <si>
     <t>Duration of use of the staircase curve.</t>
+  </si>
+  <si>
+    <t>The tool models the failure of a Replacement Unit (RU) across three life stages: the 'Early' phase (associated with design or manufacturing issues that were not adequately controlled), the 'Random' phase (where failures occur randomly), and the 'Wear-out' phase (resulting from wear and tear). This sheet allows you to specify the parameters necessary to create failure functions (probability distributions) for the RUs. The probability distribution used to model failures is Weibull, characterized by two parameters: β (the shape parameter) and σ (the scale parameter - in years). Failures during the early phase have β &lt; 1, random failures have β = 1, and wear-out failures have β &gt; 1.
+Maintenance (year) defines the maintenance time for each RU.</t>
+  </si>
+  <si>
+    <t>Maintenance (year)</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Modeling of maintenance of RU: choose 'True' if maintenance is considered, or 'False' if it is not considered.</t>
   </si>
 </sst>
 </file>
@@ -554,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -679,6 +689,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -686,7 +709,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -720,9 +743,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -742,9 +762,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -773,6 +790,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1112,7 +1155,7 @@
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1120,7 +1163,7 @@
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1128,7 +1171,7 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1136,7 +1179,7 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1144,7 +1187,7 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="28">
         <f>1</f>
         <v>1</v>
       </c>
@@ -1153,7 +1196,7 @@
       <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1161,7 +1204,7 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1169,7 +1212,7 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1194,7 +1237,7 @@
       <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="34" t="s">
         <v>84</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1220,46 +1263,46 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="str">
+      <c r="A12" s="35" t="str">
         <f>B3</f>
         <v>RU1 Manufacturing</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="36">
         <v>0</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="35">
         <v>1</v>
       </c>
-      <c r="E12" s="37" t="str">
+      <c r="E12" s="35" t="str">
         <f>B1</f>
         <v>Name of the database</v>
       </c>
-      <c r="F12" s="37" t="str">
+      <c r="F12" s="35" t="str">
         <f>B7</f>
         <v>RU1 manufacturing</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="35">
         <v>0</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="35" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1268,7 +1311,7 @@
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1276,7 +1319,7 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="30" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1284,7 +1327,7 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1292,7 +1335,7 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="28">
         <f>1</f>
         <v>1</v>
       </c>
@@ -1301,7 +1344,7 @@
       <c r="A18" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1309,7 +1352,7 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1317,7 +1360,7 @@
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="28" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1342,7 +1385,7 @@
       <c r="E22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="34" t="s">
         <v>84</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -1368,46 +1411,46 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="str">
+      <c r="A23" s="35" t="str">
         <f>B14</f>
         <v>RU2 Manufacturing</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="36">
         <v>0</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="35">
         <v>1</v>
       </c>
-      <c r="E23" s="37" t="str">
+      <c r="E23" s="35" t="str">
         <f>B1</f>
         <v>Name of the database</v>
       </c>
-      <c r="F23" s="37" t="str">
+      <c r="F23" s="35" t="str">
         <f>B18</f>
         <v>RU2 manufacturing</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="35">
         <v>0</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="K23" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="M23" s="35" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3612,7 +3655,7 @@
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>39</v>
       </c>
       <c r="G1" s="4"/>
@@ -3621,7 +3664,7 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="4"/>
@@ -3630,7 +3673,7 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="4"/>
@@ -3639,7 +3682,7 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <f>1</f>
         <v>1</v>
       </c>
@@ -3649,7 +3692,7 @@
       <c r="A5" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>87</v>
       </c>
       <c r="G5" s="4"/>
@@ -3658,7 +3701,7 @@
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="4"/>
@@ -3667,7 +3710,7 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4"/>
@@ -3694,7 +3737,7 @@
       <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="34" t="s">
         <v>84</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -3720,46 +3763,46 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="str">
+      <c r="A10" s="30" t="str">
         <f>B1</f>
         <v>Energy per hours RU1</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="31">
         <v>1</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="30">
         <v>1</v>
       </c>
-      <c r="E10" s="32" t="str">
+      <c r="E10" s="30" t="str">
         <f>'Inventory - Manufacturing'!B1</f>
         <v>Name of the database</v>
       </c>
-      <c r="F10" s="35" t="str">
+      <c r="F10" s="33" t="str">
         <f>B5</f>
         <v>energy RU1</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="30">
         <v>0</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="L10" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="28" t="s">
         <v>19</v>
       </c>
       <c r="N10" s="8"/>
@@ -3773,7 +3816,7 @@
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="4"/>
@@ -3782,7 +3825,7 @@
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="4"/>
@@ -3791,7 +3834,7 @@
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="4"/>
@@ -3800,7 +3843,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="28">
         <f>1</f>
         <v>1</v>
       </c>
@@ -3810,7 +3853,7 @@
       <c r="A16" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>88</v>
       </c>
       <c r="G16" s="4"/>
@@ -3819,7 +3862,7 @@
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="28" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="4"/>
@@ -3828,7 +3871,7 @@
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="4"/>
@@ -3855,7 +3898,7 @@
       <c r="E20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="34" t="s">
         <v>84</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -3881,46 +3924,46 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="str">
+      <c r="A21" s="30" t="str">
         <f>B12</f>
         <v>Energy per hours RU2</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="31">
         <v>1</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="30">
         <v>1</v>
       </c>
-      <c r="E21" s="32" t="str">
+      <c r="E21" s="30" t="str">
         <f>'Inventory - Manufacturing'!B1</f>
         <v>Name of the database</v>
       </c>
-      <c r="F21" s="35" t="str">
+      <c r="F21" s="33" t="str">
         <f>B16</f>
         <v>energy RU2</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="30">
         <v>0</v>
       </c>
-      <c r="K21" s="34" t="s">
+      <c r="K21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="34" t="s">
+      <c r="L21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="30" t="s">
+      <c r="M21" s="28" t="s">
         <v>19</v>
       </c>
       <c r="N21" s="8"/>
@@ -3959,7 +4002,7 @@
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3968,7 +4011,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3977,7 +4020,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3986,19 +4029,19 @@
         <v>45</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="22"/>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4010,19 +4053,19 @@
         <f>'Inventory - Manufacturing'!B1</f>
         <v>Name of the database</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="22"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4031,19 +4074,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="22"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4052,7 +4095,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4090,7 +4133,7 @@
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4110,7 +4153,7 @@
       <c r="E2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4139,10 +4182,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA797D85-FDD2-499E-9F95-1629A68BBB9A}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4156,7 +4199,7 @@
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4164,8 +4207,8 @@
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="23" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4176,17 +4219,17 @@
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="22" t="s">
-        <v>90</v>
+      <c r="B4" s="24"/>
+      <c r="C4" s="21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4194,20 +4237,20 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="21" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="22"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="21" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4215,7 +4258,7 @@
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="18" t="s">
         <v>76</v>
       </c>
@@ -4224,38 +4267,52 @@
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="22"/>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="11" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+    </row>
+    <row r="12" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="49"/>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="22" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="22"/>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="21"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="22" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="21" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B10" xr:uid="{60ACCCA7-D116-4829-9F7B-3966522E3918}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B12" xr:uid="{60ACCCA7-D116-4829-9F7B-3966522E3918}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4266,10 +4323,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D3A475-1715-4FF1-B0D3-38A761B0E89D}">
   <sheetPr codeName="Feuil6"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,75 +4340,89 @@
     <col min="7" max="7" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+    </row>
+    <row r="2" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="28" t="s">
+      <c r="B2" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="43"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="51" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="H4" s="51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4384,47 +4455,47 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="41"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="14"/>
@@ -4443,7 +4514,7 @@
   <dimension ref="A1:A179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection sqref="A1:A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4452,543 +4523,543 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="40"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="40"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="40"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="40"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="40"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="40"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="40"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="40"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="40"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="40"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="40"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="40"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="40"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="40"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="40"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="40"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="40"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="40"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="40"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="40"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="40"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="40"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="40"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="40"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+      <c r="A26" s="40"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
+      <c r="A27" s="40"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="40"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="40"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="40"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="40"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="40"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="40"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+      <c r="A34" s="40"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="A35" s="40"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="40"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="40"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="40"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="40"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="40"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="40"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="40"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="40"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="40"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="40"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="40"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="40"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="40"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="40"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="40"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="40"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="40"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+      <c r="A53" s="40"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
+      <c r="A54" s="40"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
+      <c r="A55" s="40"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
+      <c r="A56" s="40"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+      <c r="A57" s="40"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
+      <c r="A58" s="40"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
+      <c r="A59" s="40"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+      <c r="A60" s="40"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+      <c r="A61" s="40"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+      <c r="A62" s="40"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
+      <c r="A63" s="40"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
+      <c r="A64" s="40"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
+      <c r="A65" s="40"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
+      <c r="A66" s="40"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
+      <c r="A67" s="40"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
+      <c r="A68" s="40"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
+      <c r="A69" s="40"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
+      <c r="A70" s="40"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
+      <c r="A71" s="40"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
+      <c r="A72" s="40"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
+      <c r="A73" s="40"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
+      <c r="A74" s="40"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+      <c r="A75" s="40"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
+      <c r="A76" s="40"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
+      <c r="A77" s="40"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
+      <c r="A78" s="40"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
+      <c r="A79" s="40"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+      <c r="A80" s="40"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
+      <c r="A81" s="40"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
+      <c r="A82" s="40"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="40"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="40"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
+      <c r="A85" s="40"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
+      <c r="A86" s="40"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
+      <c r="A87" s="40"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
+      <c r="A88" s="40"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
+      <c r="A89" s="40"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="42"/>
+      <c r="A90" s="40"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
+      <c r="A91" s="40"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
+      <c r="A92" s="40"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
+      <c r="A93" s="40"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
+      <c r="A94" s="40"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
+      <c r="A95" s="40"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
+      <c r="A96" s="40"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
+      <c r="A97" s="40"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
+      <c r="A98" s="40"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
+      <c r="A99" s="40"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
+      <c r="A100" s="40"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
+      <c r="A101" s="40"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="42"/>
+      <c r="A102" s="40"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="42"/>
+      <c r="A103" s="40"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="42"/>
+      <c r="A104" s="40"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="42"/>
+      <c r="A105" s="40"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="42"/>
+      <c r="A106" s="40"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="42"/>
+      <c r="A107" s="40"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="42"/>
+      <c r="A108" s="40"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="42"/>
+      <c r="A109" s="40"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="42"/>
+      <c r="A110" s="40"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="42"/>
+      <c r="A111" s="40"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="42"/>
+      <c r="A112" s="40"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="42"/>
+      <c r="A113" s="40"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="42"/>
+      <c r="A114" s="40"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="42"/>
+      <c r="A115" s="40"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="42"/>
+      <c r="A116" s="40"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="42"/>
+      <c r="A117" s="40"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="42"/>
+      <c r="A118" s="40"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="42"/>
+      <c r="A119" s="40"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="42"/>
+      <c r="A120" s="40"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="42"/>
+      <c r="A121" s="40"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="42"/>
+      <c r="A122" s="40"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="42"/>
+      <c r="A123" s="40"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="42"/>
+      <c r="A124" s="40"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="42"/>
+      <c r="A125" s="40"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="42"/>
+      <c r="A126" s="40"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="42"/>
+      <c r="A127" s="40"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="42"/>
+      <c r="A128" s="40"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="42"/>
+      <c r="A129" s="40"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="42"/>
+      <c r="A130" s="40"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="42"/>
+      <c r="A131" s="40"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="42"/>
+      <c r="A132" s="40"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="42"/>
+      <c r="A133" s="40"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="42"/>
+      <c r="A134" s="40"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="42"/>
+      <c r="A135" s="40"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="42"/>
+      <c r="A136" s="40"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="42"/>
+      <c r="A137" s="40"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="42"/>
+      <c r="A138" s="40"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="42"/>
+      <c r="A139" s="40"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="42"/>
+      <c r="A140" s="40"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="42"/>
+      <c r="A141" s="40"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="42"/>
+      <c r="A142" s="40"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="42"/>
+      <c r="A143" s="40"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="42"/>
+      <c r="A144" s="40"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="42"/>
+      <c r="A145" s="40"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="42"/>
+      <c r="A146" s="40"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="42"/>
+      <c r="A147" s="40"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="42"/>
+      <c r="A148" s="40"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="42"/>
+      <c r="A149" s="40"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="42"/>
+      <c r="A150" s="40"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="42"/>
+      <c r="A151" s="40"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="42"/>
+      <c r="A152" s="40"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="42"/>
+      <c r="A153" s="40"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="42"/>
+      <c r="A154" s="40"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="42"/>
+      <c r="A155" s="40"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="42"/>
+      <c r="A156" s="40"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="42"/>
+      <c r="A157" s="40"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="42"/>
+      <c r="A158" s="40"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="42"/>
+      <c r="A159" s="40"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="42"/>
+      <c r="A160" s="40"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="42"/>
+      <c r="A161" s="40"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="42"/>
+      <c r="A162" s="40"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="42"/>
+      <c r="A163" s="40"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="42"/>
+      <c r="A164" s="40"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="42"/>
+      <c r="A165" s="40"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="42"/>
+      <c r="A166" s="40"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="42"/>
+      <c r="A167" s="40"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="42"/>
+      <c r="A168" s="40"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="29"/>
+      <c r="A169" s="27"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="29"/>
+      <c r="A170" s="27"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="29"/>
+      <c r="A171" s="27"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="29"/>
+      <c r="A172" s="27"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="29"/>
+      <c r="A173" s="27"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="29"/>
+      <c r="A174" s="27"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="29"/>
+      <c r="A175" s="27"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="29"/>
+      <c r="A176" s="27"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="29"/>
+      <c r="A177" s="27"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="29"/>
+      <c r="A178" s="27"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="29"/>
+      <c r="A179" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Input/Input - template.xlsx
+++ b/Input/Input - template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8F99D8-F444-4842-AE10-7ACB36F4B9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF284C68-AF8C-4E75-8D90-D66657E005A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2565" windowWidth="21600" windowHeight="11295" firstSheet="4" activeTab="7" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
+    <workbookView xWindow="-1680" yWindow="-16230" windowWidth="21600" windowHeight="11295" firstSheet="4" activeTab="4" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory - Manufacturing" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="96">
   <si>
     <t>Random failure</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>Modeling of maintenance of RU: choose 'True' if maintenance is considered, or 'False' if it is not considered.</t>
+  </si>
+  <si>
+    <t>Staircase result filename</t>
+  </si>
+  <si>
+    <t>The Excel file of the LCA staircase at service life.</t>
   </si>
 </sst>
 </file>
@@ -779,18 +785,6 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -816,6 +810,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4182,10 +4188,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA797D85-FDD2-499E-9F95-1629A68BBB9A}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4203,116 +4209,128 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" s="39" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="43"/>
+    </row>
+    <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="23" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="21" t="s">
-        <v>74</v>
-      </c>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="21"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="21" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="18" t="s">
-        <v>76</v>
-      </c>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="18" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-    </row>
-    <row r="12" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+    <row r="13" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+    </row>
+    <row r="14" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="53" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="49" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="49"/>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="45"/>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="21" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="21"/>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="21" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="21" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B12" xr:uid="{60ACCCA7-D116-4829-9F7B-3966522E3918}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B14" xr:uid="{60ACCCA7-D116-4829-9F7B-3966522E3918}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4341,88 +4359,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="43"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="47" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4458,25 +4476,25 @@
       <c r="A2" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4513,7 +4531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D881B3-C817-4747-BE7C-F934D584F408}">
   <dimension ref="A1:A179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection sqref="A1:A168"/>
     </sheetView>
   </sheetViews>
@@ -4523,510 +4541,510 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="54" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="54"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="54"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="54"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="54"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="54"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="54"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+      <c r="A8" s="54"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="54"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="54"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="54"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="54"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="54"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="54"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="54"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="54"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="54"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="54"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="54"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="54"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="54"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="54"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="54"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="54"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="54"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="54"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="54"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="54"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="54"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="54"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="54"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="54"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="54"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="54"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="54"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="A36" s="54"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="54"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="54"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="A39" s="54"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="54"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="54"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="54"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="54"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="54"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="A45" s="54"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
+      <c r="A46" s="54"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+      <c r="A47" s="54"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="A48" s="54"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
+      <c r="A49" s="54"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="54"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="A51" s="54"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+      <c r="A52" s="54"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
+      <c r="A53" s="54"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
+      <c r="A54" s="54"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
+      <c r="A55" s="54"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
+      <c r="A56" s="54"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
+      <c r="A57" s="54"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
+      <c r="A58" s="54"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+      <c r="A59" s="54"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+      <c r="A60" s="54"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+      <c r="A61" s="54"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
+      <c r="A62" s="54"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+      <c r="A63" s="54"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+      <c r="A64" s="54"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
+      <c r="A65" s="54"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+      <c r="A66" s="54"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
+      <c r="A67" s="54"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+      <c r="A68" s="54"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+      <c r="A69" s="54"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+      <c r="A70" s="54"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+      <c r="A71" s="54"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+      <c r="A72" s="54"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+      <c r="A73" s="54"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
+      <c r="A74" s="54"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+      <c r="A75" s="54"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
+      <c r="A76" s="54"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="54"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="54"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="54"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="54"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="54"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="54"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="54"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="54"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="54"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="54"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="54"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="54"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="54"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="54"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="54"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="54"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="54"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="54"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="54"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="54"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="54"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="54"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="54"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="54"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="54"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="54"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="54"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+      <c r="A104" s="54"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+      <c r="A105" s="54"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+      <c r="A106" s="54"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+      <c r="A107" s="54"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+      <c r="A108" s="54"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+      <c r="A109" s="54"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+      <c r="A110" s="54"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+      <c r="A111" s="54"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+      <c r="A112" s="54"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+      <c r="A113" s="54"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+      <c r="A114" s="54"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+      <c r="A115" s="54"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+      <c r="A116" s="54"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+      <c r="A117" s="54"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
+      <c r="A118" s="54"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+      <c r="A119" s="54"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+      <c r="A120" s="54"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+      <c r="A121" s="54"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+      <c r="A122" s="54"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+      <c r="A123" s="54"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+      <c r="A124" s="54"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
+      <c r="A125" s="54"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+      <c r="A126" s="54"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+      <c r="A127" s="54"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
+      <c r="A128" s="54"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
+      <c r="A129" s="54"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
+      <c r="A130" s="54"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
+      <c r="A131" s="54"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
+      <c r="A132" s="54"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
+      <c r="A133" s="54"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
+      <c r="A134" s="54"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="40"/>
+      <c r="A135" s="54"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
+      <c r="A136" s="54"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
+      <c r="A137" s="54"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
+      <c r="A138" s="54"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
+      <c r="A139" s="54"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
+      <c r="A140" s="54"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
+      <c r="A141" s="54"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="40"/>
+      <c r="A142" s="54"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="40"/>
+      <c r="A143" s="54"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="40"/>
+      <c r="A144" s="54"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="40"/>
+      <c r="A145" s="54"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="40"/>
+      <c r="A146" s="54"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="40"/>
+      <c r="A147" s="54"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="40"/>
+      <c r="A148" s="54"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="40"/>
+      <c r="A149" s="54"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="40"/>
+      <c r="A150" s="54"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="40"/>
+      <c r="A151" s="54"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="40"/>
+      <c r="A152" s="54"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="40"/>
+      <c r="A153" s="54"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="40"/>
+      <c r="A154" s="54"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="40"/>
+      <c r="A155" s="54"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="40"/>
+      <c r="A156" s="54"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="40"/>
+      <c r="A157" s="54"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="40"/>
+      <c r="A158" s="54"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="40"/>
+      <c r="A159" s="54"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="40"/>
+      <c r="A160" s="54"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="40"/>
+      <c r="A161" s="54"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="40"/>
+      <c r="A162" s="54"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="40"/>
+      <c r="A163" s="54"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="40"/>
+      <c r="A164" s="54"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="40"/>
+      <c r="A165" s="54"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="40"/>
+      <c r="A166" s="54"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="40"/>
+      <c r="A167" s="54"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="40"/>
+      <c r="A168" s="54"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="27"/>
